--- a/Bibliometrix-Export-File-2022-12-15.xlsx
+++ b/Bibliometrix-Export-File-2022-12-15.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,20 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -8057,7 +8070,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -8090,7 +8103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8390,9 +8403,9 @@
       <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8586,7 +8599,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:64">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -8732,7 +8745,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -8863,7 +8876,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -9009,7 +9022,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -9152,7 +9165,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -9295,7 +9308,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64">
       <c r="A7" t="s">
         <v>238</v>
       </c>
@@ -9447,7 +9460,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64">
       <c r="A8" t="s">
         <v>275</v>
       </c>
@@ -9572,7 +9585,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64">
       <c r="A9" t="s">
         <v>298</v>
       </c>
@@ -9715,7 +9728,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64">
       <c r="A10" t="s">
         <v>327</v>
       </c>
@@ -9873,7 +9886,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64">
       <c r="A11" t="s">
         <v>360</v>
       </c>
@@ -10031,7 +10044,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64">
       <c r="A12" t="s">
         <v>397</v>
       </c>
@@ -10180,7 +10193,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64">
       <c r="A13" t="s">
         <v>429</v>
       </c>
@@ -10317,7 +10330,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64">
       <c r="A14" t="s">
         <v>456</v>
       </c>
@@ -10454,7 +10467,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64">
       <c r="A15" t="s">
         <v>484</v>
       </c>
@@ -10600,7 +10613,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64">
       <c r="A16" t="s">
         <v>515</v>
       </c>
@@ -10755,7 +10768,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64">
       <c r="A17" t="s">
         <v>546</v>
       </c>
@@ -10904,7 +10917,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64">
       <c r="A18" t="s">
         <v>568</v>
       </c>
@@ -11056,7 +11069,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:64">
       <c r="A19" t="s">
         <v>595</v>
       </c>
@@ -11187,7 +11200,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:64">
       <c r="A20" t="s">
         <v>622</v>
       </c>
@@ -11336,7 +11349,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64">
       <c r="A21" t="s">
         <v>650</v>
       </c>
@@ -11479,7 +11492,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64">
       <c r="A22" t="s">
         <v>672</v>
       </c>
@@ -11628,7 +11641,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64">
       <c r="A23" t="s">
         <v>702</v>
       </c>
@@ -11771,7 +11784,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64">
       <c r="A24" t="s">
         <v>733</v>
       </c>
@@ -11932,7 +11945,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64">
       <c r="A25" t="s">
         <v>758</v>
       </c>
@@ -12087,7 +12100,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64">
       <c r="A26" t="s">
         <v>788</v>
       </c>
@@ -12230,7 +12243,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:64">
       <c r="A27" t="s">
         <v>815</v>
       </c>
@@ -12379,7 +12392,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:64">
       <c r="A28" t="s">
         <v>844</v>
       </c>
@@ -12543,7 +12556,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:64">
       <c r="A29" t="s">
         <v>867</v>
       </c>
@@ -12689,7 +12702,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:64">
       <c r="A30" t="s">
         <v>897</v>
       </c>
@@ -12838,7 +12851,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:64">
       <c r="A31" t="s">
         <v>926</v>
       </c>
@@ -12987,7 +13000,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:64">
       <c r="A32" t="s">
         <v>951</v>
       </c>
@@ -13133,7 +13146,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:64">
       <c r="A33" t="s">
         <v>978</v>
       </c>
@@ -13294,7 +13307,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:64">
       <c r="A34" t="s">
         <v>1010</v>
       </c>
@@ -13449,7 +13462,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:64">
       <c r="A35" t="s">
         <v>1038</v>
       </c>
@@ -13601,7 +13614,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="36" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:64">
       <c r="A36" t="s">
         <v>1061</v>
       </c>
@@ -13741,7 +13754,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:64">
       <c r="A37" t="s">
         <v>1090</v>
       </c>
@@ -13887,7 +13900,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="38" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:64">
       <c r="A38" t="s">
         <v>1124</v>
       </c>
@@ -14030,7 +14043,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="39" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:64">
       <c r="A39" t="s">
         <v>1150</v>
       </c>
@@ -14173,7 +14186,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:64">
       <c r="A40" t="s">
         <v>1180</v>
       </c>
@@ -14319,7 +14332,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="41" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:64">
       <c r="A41" t="s">
         <v>1201</v>
       </c>
@@ -14471,7 +14484,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="42" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:64">
       <c r="A42" t="s">
         <v>1224</v>
       </c>
@@ -14620,7 +14633,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="43" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:64">
       <c r="A43" t="s">
         <v>1251</v>
       </c>
@@ -14778,7 +14791,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="44" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:64">
       <c r="A44" t="s">
         <v>1273</v>
       </c>
@@ -14927,7 +14940,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="45" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:64">
       <c r="A45" t="s">
         <v>1300</v>
       </c>
@@ -15088,7 +15101,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="46" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:64">
       <c r="A46" t="s">
         <v>1324</v>
       </c>
@@ -15237,7 +15250,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="47" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:64">
       <c r="A47" t="s">
         <v>1354</v>
       </c>
@@ -15377,7 +15390,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="48" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:64">
       <c r="A48" t="s">
         <v>1378</v>
       </c>
@@ -15529,7 +15542,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="49" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:64">
       <c r="A49" t="s">
         <v>1399</v>
       </c>
@@ -15684,7 +15697,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="50" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:64">
       <c r="A50" t="s">
         <v>1428</v>
       </c>
@@ -15836,7 +15849,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="51" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:64">
       <c r="A51" t="s">
         <v>1458</v>
       </c>
@@ -15979,7 +15992,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="52" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:64">
       <c r="A52" t="s">
         <v>1477</v>
       </c>
@@ -16134,7 +16147,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="53" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:64">
       <c r="A53" t="s">
         <v>1507</v>
       </c>
@@ -16271,7 +16284,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="54" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:64">
       <c r="A54" t="s">
         <v>1526</v>
       </c>
@@ -16417,7 +16430,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="55" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:64">
       <c r="A55" t="s">
         <v>1458</v>
       </c>
@@ -16572,7 +16585,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="56" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:64">
       <c r="A56" t="s">
         <v>1575</v>
       </c>
@@ -16712,7 +16725,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="57" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:64">
       <c r="A57" t="s">
         <v>1597</v>
       </c>
@@ -16861,7 +16874,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="58" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:64">
       <c r="A58" t="s">
         <v>1626</v>
       </c>
@@ -17010,7 +17023,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="59" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:64">
       <c r="A59" t="s">
         <v>1651</v>
       </c>
@@ -17159,7 +17172,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="60" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:64">
       <c r="A60" t="s">
         <v>1671</v>
       </c>
@@ -17305,7 +17318,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="61" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:64">
       <c r="A61" t="s">
         <v>1698</v>
       </c>
@@ -17460,7 +17473,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="62" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:64">
       <c r="A62" t="s">
         <v>1721</v>
       </c>
@@ -17609,7 +17622,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="63" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:64">
       <c r="A63" t="s">
         <v>1741</v>
       </c>
@@ -17758,7 +17771,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="64" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:64">
       <c r="A64" t="s">
         <v>1771</v>
       </c>
@@ -17910,7 +17923,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="65" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:64">
       <c r="A65" t="s">
         <v>1799</v>
       </c>
@@ -18062,7 +18075,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="66" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:64">
       <c r="A66" t="s">
         <v>1818</v>
       </c>
@@ -18214,7 +18227,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="67" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:64">
       <c r="A67" t="s">
         <v>1838</v>
       </c>
@@ -18357,7 +18370,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="68" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:64">
       <c r="A68" t="s">
         <v>1855</v>
       </c>
@@ -18518,7 +18531,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="69" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:64">
       <c r="A69" t="s">
         <v>1884</v>
       </c>
@@ -18667,7 +18680,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="70" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:64">
       <c r="A70" t="s">
         <v>1910</v>
       </c>
@@ -18798,7 +18811,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="71" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:64">
       <c r="A71" t="s">
         <v>1930</v>
       </c>
@@ -18950,7 +18963,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="72" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:64">
       <c r="A72" t="s">
         <v>1960</v>
       </c>
@@ -19102,7 +19115,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="73" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:64">
       <c r="A73" t="s">
         <v>1979</v>
       </c>
@@ -19257,7 +19270,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="74" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:64">
       <c r="A74" t="s">
         <v>2000</v>
       </c>
@@ -19409,7 +19422,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="75" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:64">
       <c r="A75" t="s">
         <v>2028</v>
       </c>
@@ -19549,7 +19562,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="76" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:64">
       <c r="A76" t="s">
         <v>2044</v>
       </c>
@@ -19701,7 +19714,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="77" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:64">
       <c r="A77" t="s">
         <v>2065</v>
       </c>
@@ -19856,7 +19869,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="78" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:64">
       <c r="A78" t="s">
         <v>2086</v>
       </c>
@@ -20005,7 +20018,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="79" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:64">
       <c r="A79" t="s">
         <v>2104</v>
       </c>
@@ -20148,7 +20161,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="80" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:64">
       <c r="A80" t="s">
         <v>2129</v>
       </c>
@@ -20288,7 +20301,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="81" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:64">
       <c r="A81" t="s">
         <v>2150</v>
       </c>
@@ -20434,7 +20447,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="82" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:64">
       <c r="A82" t="s">
         <v>2179</v>
       </c>
@@ -20586,7 +20599,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="83" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:64">
       <c r="A83" t="s">
         <v>2199</v>
       </c>
@@ -20735,7 +20748,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="84" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:64">
       <c r="A84" t="s">
         <v>2217</v>
       </c>
@@ -20884,7 +20897,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="85" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:64">
       <c r="A85" t="s">
         <v>2233</v>
       </c>
@@ -21030,7 +21043,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="86" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:64">
       <c r="A86" t="s">
         <v>2249</v>
       </c>
@@ -21164,7 +21177,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="87" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:64">
       <c r="A87" t="s">
         <v>2273</v>
       </c>
@@ -21307,7 +21320,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="88" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:64">
       <c r="A88" t="s">
         <v>2298</v>
       </c>
@@ -21447,7 +21460,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="89" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:64">
       <c r="A89" t="s">
         <v>2320</v>
       </c>
@@ -21593,7 +21606,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="90" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:64">
       <c r="A90" t="s">
         <v>2343</v>
       </c>
@@ -21739,7 +21752,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="91" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:64">
       <c r="A91" t="s">
         <v>2367</v>
       </c>
@@ -21900,7 +21913,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="92" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:64">
       <c r="A92" t="s">
         <v>2394</v>
       </c>
@@ -22040,7 +22053,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="93" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:64">
       <c r="A93" t="s">
         <v>2411</v>
       </c>
@@ -22189,7 +22202,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="94" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:64">
       <c r="A94" t="s">
         <v>2430</v>
       </c>
@@ -22332,7 +22345,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="95" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:64">
       <c r="A95" t="s">
         <v>2452</v>
       </c>
@@ -22472,7 +22485,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="96" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:64">
       <c r="A96" t="s">
         <v>2470</v>
       </c>
@@ -22612,7 +22625,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="97" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:64">
       <c r="A97" t="s">
         <v>2487</v>
       </c>
@@ -22755,7 +22768,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="98" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:64">
       <c r="A98" t="s">
         <v>2511</v>
       </c>
@@ -22904,7 +22917,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="99" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:64">
       <c r="A99" t="s">
         <v>2537</v>
       </c>
@@ -23047,7 +23060,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="100" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:64">
       <c r="A100" t="s">
         <v>2560</v>
       </c>
@@ -23187,7 +23200,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="101" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:64">
       <c r="A101" t="s">
         <v>2579</v>
       </c>
@@ -23321,7 +23334,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="102" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:64">
       <c r="A102" t="s">
         <v>2596</v>
       </c>
@@ -23458,7 +23471,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="103" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:64">
       <c r="A103" t="s">
         <v>2612</v>
       </c>
@@ -23586,7 +23599,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="104" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:64">
       <c r="A104" t="s">
         <v>2634</v>
       </c>
@@ -23711,7 +23724,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="105" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:64">
       <c r="A105" t="s">
         <v>2650</v>
       </c>
@@ -23842,7 +23855,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="106" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:64">
       <c r="A106" t="s">
         <v>2663</v>
       </c>
